--- a/Feedback Viewing/Model 4.2 Results.xlsx
+++ b/Feedback Viewing/Model 4.2 Results.xlsx
@@ -264,80 +264,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -354,6 +353,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -673,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213549EC-4EA9-4E90-80E3-0CE58FFC5EEC}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C23" sqref="C23:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,674 +693,581 @@
     <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.200000000000003" x14ac:dyDescent="0.6">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="37.200000000000003" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="38.4" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="38.4" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.65">
-      <c r="A3" s="12" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:7" ht="37.799999999999997" x14ac:dyDescent="0.65">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.65">
-      <c r="A5" s="5" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A4" s="21"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" ht="37.799999999999997" x14ac:dyDescent="0.65">
+      <c r="A5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6">
+      <c r="B5" s="16"/>
+      <c r="C5" s="4">
         <v>14.79</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>4.25</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>3.48</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>15.44</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.65">
-      <c r="A6" s="5" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="37.799999999999997" x14ac:dyDescent="0.65">
+      <c r="A6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="7">
+      <c r="B6" s="16"/>
+      <c r="C6" s="5">
         <v>-6.76</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>1.7</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>-3.98</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>57.15</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.65">
-      <c r="A7" s="5" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="37.799999999999997" x14ac:dyDescent="0.65">
+      <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="7">
+      <c r="B7" s="16"/>
+      <c r="C7" s="5">
         <v>-17.489999999999998</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>2.31</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>22.13</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.65">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="37.799999999999997" x14ac:dyDescent="0.65">
+      <c r="A8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="7">
+      <c r="B8" s="16"/>
+      <c r="C8" s="5">
         <v>-15.74</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>2.73</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>-5.76</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>12.64</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.65">
-      <c r="A9" s="5" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="37.799999999999997" x14ac:dyDescent="0.65">
+      <c r="A9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6">
+      <c r="B9" s="16"/>
+      <c r="C9" s="4">
         <v>0.13</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>1.82</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>6764.07</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>0.94</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.65">
-      <c r="A10" s="5" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="37.799999999999997" x14ac:dyDescent="0.65">
+      <c r="A10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6">
+      <c r="B10" s="16"/>
+      <c r="C10" s="4">
         <v>1.53</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>1.36</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>1.1299999999999999</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>12931.02</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>0.26</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.65">
-      <c r="A11" s="5" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="37.799999999999997" x14ac:dyDescent="0.65">
+      <c r="A11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6">
+      <c r="B11" s="16"/>
+      <c r="C11" s="4">
         <v>0.99</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>2.04</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>0.49</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>13957.54</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>0.63</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.65">
-      <c r="A12" s="5" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="37.799999999999997" x14ac:dyDescent="0.65">
+      <c r="A12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6">
+      <c r="B12" s="16"/>
+      <c r="C12" s="4">
         <v>-0.79</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>2.78</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>13933.63</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <v>0.78</v>
       </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.65">
-      <c r="A13" s="5" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="37.799999999999997" x14ac:dyDescent="0.65">
+      <c r="A13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6">
+      <c r="B13" s="16"/>
+      <c r="C13" s="4">
         <v>-1.17</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>1.9</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>-0.62</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>13919.4</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="4">
         <v>0.54</v>
       </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.65">
-      <c r="A14" s="5" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="37.799999999999997" x14ac:dyDescent="0.65">
+      <c r="A14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6">
+      <c r="B14" s="16"/>
+      <c r="C14" s="4">
         <v>-2.97</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>1.64</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>-1.81</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="4">
         <v>13947.97</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.65">
-      <c r="A15" s="5" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="37.799999999999997" x14ac:dyDescent="0.65">
+      <c r="A15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6">
+      <c r="B15" s="16"/>
+      <c r="C15" s="4">
         <v>0.36</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>1.73</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <v>0.21</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="4">
         <v>13956.8</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="4">
         <v>0.84</v>
       </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.65">
-      <c r="A16" s="5" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="37.799999999999997" x14ac:dyDescent="0.65">
+      <c r="A16" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6">
+      <c r="B16" s="16"/>
+      <c r="C16" s="4">
         <v>-0.19</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>1.53</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="4">
         <v>-0.12</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="4">
         <v>13812.28</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="4">
         <v>0.9</v>
       </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.65">
-      <c r="A17" s="5" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="37.799999999999997" x14ac:dyDescent="0.65">
+      <c r="A17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="7">
+      <c r="B17" s="16"/>
+      <c r="C17" s="5">
         <v>-4.6100000000000003</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>2.04</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="4">
         <v>-2.2599999999999998</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="4">
         <v>13333.71</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="5">
         <v>0.02</v>
       </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.65">
-      <c r="A18" s="5" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="37.799999999999997" x14ac:dyDescent="0.65">
+      <c r="A18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6">
+      <c r="B18" s="16"/>
+      <c r="C18" s="4">
         <v>2.77</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="4">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="4">
         <v>13919.14</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="4">
         <v>0.26</v>
       </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.65">
-      <c r="A19" s="5" t="s">
+    </row>
+    <row r="19" spans="1:7" ht="37.799999999999997" x14ac:dyDescent="0.65">
+      <c r="A19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6">
+      <c r="B19" s="16"/>
+      <c r="C19" s="4">
         <v>3.35</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>3.11</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="4">
         <v>1.08</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="4">
         <v>13903.14</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="4">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="38.4" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A20" s="22" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="38.4" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A20" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23">
+      <c r="B20" s="17"/>
+      <c r="C20" s="13">
         <v>5.28</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="12">
         <v>2.3199999999999998</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="12">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="12">
         <v>13696.92</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="13">
         <v>0.02</v>
       </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A21" s="21" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="49.2" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A21" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="44.4" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A22" s="25" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="44.4" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A22" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="16" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.65">
-      <c r="A23" s="5" t="s">
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" ht="37.799999999999997" x14ac:dyDescent="0.65">
+      <c r="A23" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6">
+      <c r="B23" s="16"/>
+      <c r="C23" s="4">
         <v>35.01</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="4">
         <v>5.92</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="4">
         <v>369</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.65">
-      <c r="A24" s="5" t="s">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="37.799999999999997" x14ac:dyDescent="0.65">
+      <c r="A24" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6">
+      <c r="B24" s="16"/>
+      <c r="C24" s="4">
         <v>77.06</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="4">
         <v>8.7799999999999994</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="4">
         <v>9</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="4">
         <v>0.16</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="38.4" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A25" s="22" t="s">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="38.4" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="24">
+      <c r="B25" s="17"/>
+      <c r="C25" s="12">
         <v>6.92</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="12">
         <v>2.63</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="12">
         <v>4</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="12">
         <v>0.01</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" ht="37.200000000000003" x14ac:dyDescent="0.6">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" ht="37.200000000000003" x14ac:dyDescent="0.6">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.65">
-      <c r="A28" s="4" t="s">
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7" ht="37.200000000000003" x14ac:dyDescent="0.6">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="37.200000000000003" x14ac:dyDescent="0.6">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="37.799999999999997" x14ac:dyDescent="0.65">
+      <c r="A28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" ht="113.4" x14ac:dyDescent="0.65">
-      <c r="A29" s="8" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="113.4" x14ac:dyDescent="0.65">
+      <c r="A29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.65">
-      <c r="A30" s="10" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="37.799999999999997" x14ac:dyDescent="0.65">
+      <c r="A30" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="6">
+      <c r="B30" s="8"/>
+      <c r="C30" s="4">
         <v>369</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.65">
-      <c r="A31" s="10" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" ht="37.799999999999997" x14ac:dyDescent="0.65">
+      <c r="A31" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="6">
+      <c r="B31" s="8"/>
+      <c r="C31" s="4">
         <v>9</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="4">
         <v>0.16</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.65">
-      <c r="A32" s="10" t="s">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" ht="37.799999999999997" x14ac:dyDescent="0.65">
+      <c r="A32" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="6">
+      <c r="B32" s="8"/>
+      <c r="C32" s="4">
         <v>4</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="4">
         <v>0.01</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A10:B10"/>
@@ -1366,17 +1276,19 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>